--- a/medicine/Mort/Décès_en_1886/Décès_en_1886.xlsx
+++ b/medicine/Mort/Décès_en_1886/Décès_en_1886.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1886</t>
+          <t>Décès_en_1886</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -506,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1886</t>
+          <t>Décès_en_1886</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,8 +538,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Antonio Bignoli, peintre italien (° 26 mars 1812).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Antonio Bignoli, peintre italien (° 26 mars 1812).
 Théophile-Victor de Chevron Villette, homme politique français (° 16 août 1806).
 Ferdinando Cicconi, peintre italien (° 1831).
 Katakura Kuninori, samouraï japonais (° 1818).
@@ -539,9 +556,43 @@
 François Riss, peintre russe (° 6 décembre 1804).
 Général Rustum, général et homme politique tunisien (° vers 1820).
 Nusserwanji Tata, négociant indien (° 1822).
-Philippe Van der Haeghen, historien et philologue belge (° 24 février 1825).
-Janvier
-? janvier : Malamine Camara, sous-officier de l’infanterie coloniale (° vers 1850).
+Philippe Van der Haeghen, historien et philologue belge (° 24 février 1825).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1886</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1886</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>? janvier : Malamine Camara, sous-officier de l’infanterie coloniale (° vers 1850).
 1er janvier :
 Robert Chambers, homme politique canadien (° 17 mars 1809).
 Vittorio Imbriani, écrivain italien (° 27 octobre 1840).
@@ -641,9 +692,43 @@
 Gustav von Wartensleben, militaire et chambellan allemand (° 20 avril 1796).
 30 janvier :
 Gustave Chouquet, musicologue, librettiste, critique musical et conservateur de musée français (° 16 avril 1819).
-Gédéon de Forceville, sculpteur français (° 12 février 1799).
-Février
-? février : Jacques Baumier, architecte français (° 1824).
+Gédéon de Forceville, sculpteur français (° 12 février 1799).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1886</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1886</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>? février : Jacques Baumier, architecte français (° 1824).
 1er février :
 Philibert Bellemain, architecte français (° 29 juin 1822).
 Plantagenet Cary (11e vicomte Falkland), amiral britannique (° 8 septembre 1806).
@@ -733,9 +818,43 @@
 Marc Bonnehée, baryton français (° 2 avril 1828).
 Calixte Bournat, homme politique français (° 4 octobre 1814).
 Édouard Morren, botaniste belge (° 2 décembre 1833).
-Charles William Peach, naturaliste et géologue britannique (° 30 septembre 1800).
-Mars
-1er mars :
+Charles William Peach, naturaliste et géologue britannique (° 30 septembre 1800).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1886</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1886</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars :
 Otto von Corvin, journaliste allemand (° 12 octobre 1812).
 Charles-Joseph Lecointe, peintre français (° 24 février 1823).
 2 mars : John Cooper Forster, médecin britannique (° 13 novembre 1823).
@@ -827,9 +946,43 @@
 Victor Paillard, bronzier français (° 14 novembre 1805).
 Jean Louis Protche, ingénieur italien (° 19 mars 1818).
 Amos Wright, homme politique canadien (° 24 novembre 1809).
-Joseph Bohdan Zaleski, poète polonais (° 14 février 1802).
-Avril
-1er avril :
+Joseph Bohdan Zaleski, poète polonais (° 14 février 1802).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1886</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1886</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril :
 Carlo Gemelli, historien et bibliothécaire italien (° 4 septembre 1811).
 Auguste Le Provost de Launay, homme politique français (° 25 janvier 1823).
 4 avril :
@@ -886,9 +1039,43 @@
 Antoine Blondel, homme politique français (° 16 novembre 1795).
 Henry Hobson Richardson, architecte américain (° 29 septembre 1838).
 28 avril : Louis Gobbaerts, pianiste et compositeur belge (° 23 septembre 1835).
-30 avril : Joseph Lemoine, peintre français (° 27 juillet 1830).
-Mai
-1er mai :
+30 avril : Joseph Lemoine, peintre français (° 27 juillet 1830).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1886</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1886</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai :
 Léon Boyer, polytechnicien et ingénieur des ponts et chaussées français (° 23 février 1851).
 Léontine Tacussel, peintre française (° 14 septembre 1818).
 2 mai : Hermann Kletke, journaliste allemand (° 14 mars 1813).
@@ -954,9 +1141,43 @@
 Friedrich Michelis, philosophe et théologien allemand (° 27 juillet 1815).
 Alfred de Vergnette de Lamotte, homme politique et viticulteur français (° 5 juillet 1806).
 29 mai : Édouard Denis-Dumont, médecin français (° 23 février 1830).
-30 mai : Paolo Ier Bertoleoni, roi du Royaume de Tavolara (° 1815).
-Juin
-1er juin : Henri Louis Duret, ingénieur civil français (° 14 juillet 1849).
+30 mai : Paolo Ier Bertoleoni, roi du Royaume de Tavolara (° 1815).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1886</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1886</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Henri Louis Duret, ingénieur civil français (° 14 juillet 1849).
 3 juin :
 Ernest David, musicologue français (° 4 juillet 1824).
 Achille Kiwanuka, martyr et saint ougandais (° 1869).
@@ -1039,9 +1260,43 @@
 Louis Brébant, médecin français (° 13 janvier 1827).
 Louis Eugène Gaultier de La Richerie, administrateur colonial français (° 12 juin 1820).
 Adolphe Monticelli, peintre français (° 14 octobre 1824).
-30 juin : William Worthington Jordaan, explorateur de la colonie du Cap (° 1849).
-Juillet
-1er juillet : Otto Wilhelm Hermann von Abich, géologue et minéralogiste allemand (° 11 décembre 1806).
+30 juin : William Worthington Jordaan, explorateur de la colonie du Cap (° 1849).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1886</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1886</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Otto Wilhelm Hermann von Abich, géologue et minéralogiste allemand (° 11 décembre 1806).
 2 juillet :
 Jean-Baptiste Brochier, homme politique français (° 25 avril 1829).
 Ettore Caporali, mathématicien italien (° 17 août 1855).
@@ -1114,9 +1369,43 @@
 Niwa Nagahiro, samouraï japonais (° 17 avril 1859).
 Robert Trudel, homme politique canadien (° 21 février 1820).
 30 juillet : Shlomo Ganzfried, rabbin hongrois (° 1804).
-31 juillet : Franz Liszt, compositeur et pianiste hongrois (° 22 octobre 1811).
-Août
-3 août : Hubert Jules César Zuber, médecin militaire français (° 15 mai 1847).
+31 juillet : Franz Liszt, compositeur et pianiste hongrois (° 22 octobre 1811).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1886</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1886</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3 août : Hubert Jules César Zuber, médecin militaire français (° 15 mai 1847).
 4 août :
 Dunan Mousseux, auteur dramatique et chansonnier français (° 18 octobre 1825).
 Samuel Jones Tilden, homme politique américain (° 9 février 1814).
@@ -1138,7 +1427,475 @@
 Lydia Koidula, poétesse estonienne (° 24 décembre 1843).
 Ivan Ounkovski, amiral russe (° 29 mars 1822).
 Dolores Tosta, première dame du Mexique (° 29 juin 1827).
-12 août : Carl Plötz, entomologiste allemand (° 1814)</t>
+12 août : Carl Plötz, entomologiste allemand (° 1814).
+14 août :
+Charles Gaslonde, homme politique français (° 13 mars 1812).
+Edmond Laguerre, mathématicien français (° 9 avril 1834).
+Calinic Miclescu, prêtre orthodoxe et un homme politique roumain (° 16 avril 1822).
+16 août :
+Cecilio Pizarro, peintre et graveur espagnol (° 1er avril 1818).
+Râmakrishna, moine et philosophe indien (° 18 février 1836).
+17 août :
+Alexandre Boutlerov, chimiste russe (° 15 septembre 1828).
+Henry O'Rielly, entrepreneur américain (° 6 février 1806).
+Victor Pavie, écrivain français (° 1808).
+18 août :
+Adolphe Amouroux, notaire et homme politique français (° 12 avril 1836).
+Edgar Bauer, philosophe allemand (° 7 octobre 1820).
+Peter Burnitz, peintre allemand (° 14 janvier 1824).
+Paul Dupont des Loges, prélat catholique et homme politique d'origine française (° 11 novembre 1804).
+Philippe Fournier, homme politique suisse (° 4 juillet 1818).
+19 août :
+François Grivet, ingénieur et architecte français (° 25 décembre 1825).
+Gustave Meurant, architecte français (° 30 novembre 1819).
+Edmond Régnier, rentier et homme d'affaires français (° 11 février 1822).
+20 août :
+Ralph Neville-Grenville, homme politique britannique (° 27 février 1817).
+Charles Savy, archéologue français (° 9 juin 1816).
+Ann S. Stephens, écrivaine américaine (° 30 mars 1810).
+23 août :
+Félix-Étienne Ledent, musicien belge (° 17 novembre 1816).
+Henry Hopkins Sibley, général américain (° 25 mai 1816).
+24 août :
+François La Vieille, homme politique français (° 20 janvier 1829).
+Marie de l'Incarnation Rosal, religieuse guatémaltèque (° 27 octobre 1815).
+25 août :
+Charles Callahan Perkins, historien de l'art et graveur américain (° 1er mars 1823).
+Zinóvios Válvis, homme politique grec (° 1800).
+27 août : Antoine-Auguste Barthélémy, homme politique français (° 18 avril 1802).
+28 août :
+Camille Louis Husson, pharmacien et érudit français (° 7 mars 1843).
+François-Gabriel Lépaulle, peintre français (° 21 janvier 1804).
+Charles Soulier, photographe français (° 26 novembre 1816).
+29 août :
+Elena d'Angri Vitturi, chanteuse italienne (° 14 mai 1821 ou 1824).
+Henry Lennox, homme politique britannique (° 2 novembre 1821).
+30 août :
+Théodore Ghirardi, peintre français (° 29 juillet 1816).
+George Henry Gordon, avocat et général américain (° 19 juillet 1823).
+31 août : Victor Plessier, homme politique français (° 13 mars 1813).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1886</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1886</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre :
+Karl Renard, naturaliste allemand (° 22 avril 1809).
+Betty de Rothschild, salonnière (° 5 juin 1805).
+3 septembre : Marie Louise Velotti, religieuse italienne (° 26 novembre 1826).
+4 septembre :
+Benjamin Franklin Cheatham, général américain (° 20 octobre 1820).
+Agustina Gutiérrez Salazar, peintre chilienne (° 1851).
+5 septembre :
+Hippolyte Michaud, peintre français (° 20 août 1823).
+Samuel Morley, homme politique britannique (° 15 octobre 1809).
+6 septembre : Simon d'Entremont, homme politique canadien (° 28 octobre 1788).
+7 septembre : Joseph-Hugues Fabisch, sculpteur français (° 19 mars 1812).
+8 septembre : Maurice Jean Auguste Girard, entomologiste français (° 13 septembre 1822).
+9 septembre :
+G.F. Imbert, compositeur français (° 1er janvier 1812).
+Léon de Jouvenel, homme politique français (° 25 septembre 1811).
+10 septembre :
+John Liptrot Hatton, compositeur et chanteur britannique (° 12 octobre 1809).
+Paul Soleillet, explorateur français (° 29 avril 1842).
+11 septembre :
+Luigi Bisi, peintre italien (° 10 mai 1814).
+Eduard Robert Flegel, explorateur allemand (° 13 octobre 1852).
+12 septembre :
+John McMillan, homme politique canadien (° 4 août 1816).
+Rowland Mason Ordish, ingénieur britannique (° 11 avril 1824).
+13 septembre :
+Louis-Hector Allemand, peintre français (° 5 août 1809).
+James Metcalfe, homme politique canadien (° 1822).
+14 septembre : Gurdon Saltonstall Hubbard, homme d'affaires américain (° 22 août 1802).
+15 septembre :
+Blanche Feillet-Hennebutte, peintre, dessinatrice et lithographe française (° 5 novembre 1815).
+Carmine Gori-Merosi, prélat catholique italien (° 15 février 1810).
+16 septembre :
+Jean-Baptiste Camoin, homme d'affaires français (° 25 novembre 1819).
+Joseph de Carayon-Latour, homme politique français (° 10 août 1824).
+Louis Decazes, homme politique français (° 29 mai 1819).
+17 septembre : Asher Brown Durand, peintre et graveur américain (° 21 août 1796).
+18 septembre : Alphonse Bottard, homme politique français (° 16 avril 1819).
+19 septembre : Edward von Steinle, peintre allemand (° 2 juillet 1810).
+20 septembre : Edmond Ansart, homme politique français (° 14 novembre 1827).
+21 septembre : Alexandre Adam, homme politique français (° 1er octobre 1790).
+22 septembre :
+Dabulamanzi kaMpande, militaire zoulou (° octobre 1839).
+Joseph-Émile Lequime, médecin belge (° 19 février 1802).
+23 septembre : Thomas Webster, peintre britannique (° 10 mars 1800).
+24 septembre : Jules Duboscq, photographe français (° 5 mars 1817).
+25 septembre :
+Ernest de Blosseville, homme politique français (° 19 juillet 1799).
+Charles D. Robinson, homme politique américain (° 22 octobre 1822).
+26 septembre : Hippolyte Castille, journaliste et écrivain français (° 8 novembre 1820).
+27 septembre :
+Pierre de Breyne, homme politique belge (° 17 avril 1801).
+Octave François Charles Didelot, officier de marine français (° 2 décembre 1812).
+29 septembre : Hippolyte Rimbaut, dramaturge français (° 29 février 1808).
+30 septembre :
+Franz Adam, peintre allemand (° 4 mai 1815).
+Joseph-Émile Belot, historien français (° 24 septembre 1829).
+Eduard von Bomhard, homme politique allemand (° 2 octobre 1809).
+Botho von Hülsen, intendant de théâtre allemand (° 10 décembre 1815).
+Bedford Clapperton Trevelyan Pim, amiral, explorateur et homme politique britannique (° 12 juin 1826).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1886</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1886</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>? octobre : Hippolyte Piquet, homme politique français (° 5 juin 1815).
+1er octobre :
+Anatole-Cyprien Coffard, négociant et homme politique français (° 4 octobre 1819).
+William Hepworth Thompson, universitaire britannique (° 27 mars 1810).
+2 octobre : Juvénal Viellard, homme politique français (° 21 novembre 1803).
+4 octobre :
+George French Angas, illustrateur et naturaliste britannique (° 25 avril 1822).
+Germain Demay, archiviste et sigillographe français (° 15 janvier 1819).
+5 octobre : Ernest-Eugène Hiolle, sculpteur français (° 5 mai 1834).
+6 octobre :
+Victor Cochinat, avocat et journaliste français (° 19 janvier 1819).
+Pierre-Louis Morin, architecte français (° 21 février 1811).
+Samba Laobé Fall, Damel du royaume de Cayor (° ?).
+7 octobre :
+William Barnes, prêtre anglican et écrivain britannique (° 22 février 1801).
+Gideon Jacques Denny, peintre américain (° 15 juillet 1830).
+Antonio Romero y Andía, compositeur et clarinettiste espagnol (° 11 mai 1815).
+9 octobre :
+José Casado del Alisal, peintre espagnol (° 24 mars 1832).
+Alexis Didier, médium français (° 30 mars 1826).
+Jean-Jacques Uhrich, général de division français (° 15 février 1802).
+Zacharie Vincent, peintre canadien (° 28 janvier 1815).
+10 octobre :
+Adalbert Deganne, ingénieur et homme politique français (° 22 octobre 1817).
+Barthélémy Ferrary, homme politique français (° 25 avril 1827).
+Albert Humbert, écrivain et journaliste français (° 24 février 1835).
+David Levy Yulee, homme politique américain (° 12 juin 1810).
+Johann Evangelist Wagner, prêtre et vénérable catholique allemand (° 5 décembre 1807).
+12 octobre : Shlomo Zalman Abel, rabbin lituanien (° 11 mars 1857).
+13 octobre : Ludovic d'Ursel, homme politique belge (° 28 février 1809).
+15 octobre :
+Grégoire Bibesco-Brancovan, prince franco-roumain (° 12 décembre 1827).
+Mordekhai Tsvi Mane, poète et peintre russe (° 5 mai 1859).
+Gustave Masure, journaliste et homme politique français (° 17 juin 1836).
+16 octobre :
+Adolphe Daguenet, homme politique français (° 8 juillet 1801).
+Henri Mercier, diplomate français (° 29 novembre 1816).
+Mayer Carl von Rothschild, banquier allemand (° 5 août 1820).
+John Short, homme politique canadien (° 4 juillet 1836).
+18 octobre :
+Heinrich Ahrens, entrepreneur allemand (° 21 décembre 1842).
+Ernest Brudenell-Bruce, homme politique britannique (° 8 janvier 1811).
+Nikolaï Makovski, peintre russe (° 10 mai 1841).
+19 octobre :
+Louis-Xavier Gargan, inventeur français (° 20 janvier 1816).
+Alexandre Vührer, fonctionnaire et patron de presse français (° 11 avril 1817).
+20 octobre : Francesco Scaramuzza, peintre et poète italien (° 14 juillet 1803).
+21 octobre :
+Jules Bouis, chimiste français (° 2 avril 1822).
+Jules Delelis, homme politique français (° 3 juin 1827).
+Frederick Guthrie, physicien britannique (° 15 octobre 1833).
+José Hernández, poète argentin (° 10 novembre 1834).
+22 octobre :
+Ernest Desjardins, géographe et historien français (° 30 septembre 1823).
+Adolf Lüderitz, commerçant allemand (° 16 juillet 1834).
+Pierre Rossier, photographe suisse (° 16 juillet 1829).
+Albert Wigand, botaniste allemand (° 21 avril 1821).
+23 octobre :
+Friedrich Ferdinand von Beust, homme politique autrichien (° 13 janvier 1809).
+Madame Leménil, actrice française (° 1805).
+24 octobre : Salvatore Mazza, peintre italien (° 19 avril 1819).
+25 octobre :
+Alexandre Abramov, général russe (° 28 août 1836).
+Étienne Médal, homme politique français (° 15 octobre 1812).
+François Mouly, sculpteur français (° 21 septembre 1846).
+26 octobre : Lat Dior, Damel du royaume de Cayor (° 1842).
+27 octobre :
+Robert Collier, homme politique et juge britannique (° 21 juin 1817).
+Hermann von Wichmann, général de cavalerie allemand (° 15 décembre 1820).
+28 octobre : Frédéric-Désiré Hillemacher, graveur français (° 23 juin 1811).
+29 octobre : George Byng, homme politique britannique (° 8 juin 1806).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1886</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1886</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Eugène Lachat, évêque suisse (° 14 octobre 1814).
+2 novembre :
+Théodore Aubanel, poète français (° 26 mars 1829).
+Pierre Foissac, médecin français (° 6 décembre 1801).
+Wilhelm Loewe, médecin et homme politique allemand (° 14 novembre 1814).
+3 novembre :
+Félix Belly, journaliste et ingénieur français (° 27 octobre 1816).
+Alexandre Vassilievitch Golovnine, homme politique russe (° 25 mars 1821).
+Joseph-Urbain Mélin, peintre français (° 14 février 1814).
+Henri Moisy, linguiste français (° 16 janvier 1815).
+4 novembre : James Martin, homme politique et juge australien (° 14 mai 1820).
+6 novembre : George Barrington, homme politique britannique (° 14 février 1824).
+7 novembre :
+Louis Dupuy de Belvèze, homme politique français (° 11 février 1809).
+8 novembre : Josiah Charles Hughes, homme politique canadien (° 5 mai 1843).
+9 novembre :
+Jan-Daniel Georgens, pédagogue allemand (° 12 juin 1823).
+Hippolyte Goyon, notaire et homme politique français (° 20 juillet 1800).
+10 novembre :
+Filipina Brzezińska-Szymanowska, pianiste et compositrice polonaise (° 1er janvier 1800).
+William Henry Silvester, photographe britannique (° 15 septembre 1814).
+11 novembre :
+Paul Bert, médecin et homme politique français (° 19 octobre 1833).
+Charles-Arthur Bourgeois, sculpteur français (° 19 mai 1838).
+Gustav Adolf Fischer, explorateur et naturaliste allemand (° 3 mars 1848).
+Matsudaira Chikayoshi, samouraï japonais (° 10 janvier 1829).
+Alexander von Schoeller, homme d'affaires germano-autrichien (° 12 juin 1805).
+12 novembre :
+William Cole, homme politique et paléontologue britannique (° 25 janvier 1807).
+Francis Fry, industriel britannique (° 28 octobre 1803).
+Archibald Alexander Hodge, pasteur américain (° 18 juillet 1823).
+14 novembre :
+Patrick Proctor Alexander, écrivain et philosophe écossais (° 1823).
+Alexandre-Émile Béguyer de Chancourtois, géologue et minéralogiste français (° 20 janvier 1820).
+Édouard Dalloz, homme politique français (° 24 mai 1826).
+Benoît Jouvin, journaliste et critique musical français (° 21 janvier 1810).
+15 novembre :
+Sergueï Ammossov, peintre russe (° 15 juin 1837).
+Gustav Heine von Geldern, éditeur de presse autrichien (° 1803 - 1805).
+Ludwig Rose, homme politique allemand (° 28 avril 1819).
+Lucy Say, naturaliste et illustratice scientifique américaine (° 28 novembre 1800).
+17 novembre :
+Camille Dognin, industriel et botaniste français (° 28 janvier 1812).
+Gustave Lassalle-Bordes, peintre français (° 1814 - 1815).
+Nanine Souvestre-Papot, écrivaine française (° 17 décembre 1806).
+18 novembre :
+Chester A. Arthur, 21e président des États-Unis (° 5 octobre 1829).
+Rudolf Joukovski, peintre russe (° 1814).
+Pierre Semenenko, théologien polonais (° 16 juin 1814).
+19 novembre :
+Eugène Petit, peintre français (° 8 juillet 1838).
+Mathias Schiff, sculpteur français (° 15 janvier 1862).
+20 novembre : Rebecca Solomon, peintre britannique (° 26 septembre 1832).
+21 novembre :
+Charles Francis Adams, Sr., avocat et homme politique américain (° 18 octobre 1807).
+Eugène Rambert, écrivain et naturaliste suisse (° 6 avril 1830).
+Johannes Scherr, écrivain et historien allemand (° 3 octobre 1817).
+22 novembre :
+Mary Boykin Chesnut, écrivaine américaine (° 31 mars 1823).
+Jules Rieffel, ingénieur agronome français (° 5 décembre 1806).
+23 novembre :
+Omer Ablay, général belge (° 16 février 1801).
+Marguerite Bellanger, actrice français (° 9 juin 1838).
+Louis-Charles-Emmanuel de Coëtlogon, militaire et écrivain français (° 10 août 1814).
+Leopold Kompert, écrivain autrichien (° 15 mai 1822).
+24 novembre :
+Victor Deroche, peintre français (° 10 décembre 1823).
+Jean Laurent, photographe français (° 23 juillet 1816).
+Francis Spencer, homme politique britannique (° 6 octobre 1802).
+25 novembre :
+Isidore Laurent Deroy, peintre et lithographe français (° 13 avril 1797).
+Ričard Karlovič Maak, naturaliste, géographe et anthropologue russe (° 4 septembre 1825).
+26 novembre :
+Jean-Claude Esparon, médailleur français (° 15 septembre 1823).
+Giuseppe Guerzoni, patriote et écrivain italien (° 27 février 1835).
+Édouard Lièvre, dessinateur, peintre et graveur français (° 22 septembre 1828).
+27 novembre : François Robitaille, prêtre catholique (° 10 juin 1800).
+28 novembre :
+Constant Cornelis Huijsmans, peintre et pédagogue néerlandais (° 1er janvier 1810).
+Charles-Jean Seghers, évêque et missionnaire belge (° 26 décembre 1839).
+29 novembre :
+Adolfo de Foresta, homme politique italien (° 26 novembre 1825).
+John P. Gray, psychiatre américain (° 6 août 1825).
+30 novembre :
+Acton Smee Ayrton, homme politique britannique (° 5 août 1816).
+Dimítrios Válvis, homme politique grec (° 8 mai 1808).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1886</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1886</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>? décembre : Charles-François Fontannes, géologue français (° 1839).
+1er décembre :
+Henry Mark Anthony, peintre britannique (° 4 août 1817).
+Marius Chavanne, homme politique français (° 18 février 1817).
+Louis Henri de Gueydon, vice-amiral et homme politique français (° 22 novembre 1809).
+Karl Jühlke, explorateur allemand (° 6 septembre 1856).
+Emma Paterson, féministe et syndicaliste britannique (° 5 avril 1848).
+Théophile Stern, compositeur et organiste français (° 24 juillet 1803).
+Joachim Telliez-Béthune, homme politique français (° 8 mars 1818).
+3 décembre :
+Vincent Amy, homme politique français (° 17 janvier 1813).
+François Pittié, général et poète français (° 4 janvier 1829).
+4 décembre :
+Charles Nicolas Friant, militaire français (° 3 janvier 1818).
+Johann Georg Meyer, peintre allemand (° 28 octobre 1813).
+Natalis de Wailly, historien, archiviste et bibliothécaire français (° 10 mai 1805).
+Godefroid Xhrouet, commerçant belge (° 20 janvier 1833).
+5 décembre :
+John Crampton, diplomate britannique (° 12 août 1805).
+Petrus Hofstede de Groot, pasteur et théologien néerlandais (° 8 octobre 1802).
+Alexandre Juliard, peintre français (° 3 mars 1817).
+8 décembre :
+Leo Becker, homme politique allemand (° 14 mars 1840).
+Balé Demba, monarque du royaume de Dubréka (° vers 1805)
+William Fraser Tolmie, homme politique canadien (° 23 février 1812).
+Isaac Lea, malacologiste et minéralogiste américain (° 4 mars 1792).
+9 décembre : Alexandre Vuillemin, géographe français (° 1812).
+10 décembre :
+Giovanni Busato, peintre italien (° 3 décembre 1806).
+Marco Minghetti, homme politique italien (° 18 novembre 1818).
+Eduard Moritz von Flies, militaire allemand (° 25 août 1802).
+11 décembre :
+Félix Cottavoz, peintre français (° 5 avril 1810).
+Johann Baptist Franzelin, cardinal autrichien (° 15 avril 1816).
+12 décembre :
+Katherine Clerk Maxwell, physicienne britannique (° 1824).
+Félicie de Fauveau, sculptrice française (° 24 janvier 1801).
+Johan Nicolai Madvig, philologue et homme politique danois (° 7 août 1804).
+14 décembre :
+Christophe Colard, architecte français (° 24 juillet 1805).
+Noël-Jules Girard, sculpteur français (° 22 août 1816).
+17 décembre :
+Charles Guillemaut, général et homme politique français (° 18 septembre 1809).
+Matsudaira Yoritaka, daimyo japonais (° 17 mars 1810).
+19 décembre : Michele Rapisardi, peintre italien (° 27 décembre 1822).
+20 décembre : Johann Horner, ophtalmologue suisse (° 27 mars 1831).
+21 décembre :
+Lucien Chatain, peintre et vitrailliste français (° 10 avril 1846).
+Adrien Goffinet, aide de camp du roi Léopold II de Belgique (° 10 avril 1812).
+22 décembre : Adèle Esquiros, journaliste féministe française (° 12 décembre 1819).
+23 décembre :
+Arthur Edward Knox, ornithologue amateur britannique (° 28 décembre 1808).
+Richard de Lédignan, militaire et homme politique français (° 14 août 1839).
+24 décembre : Louis-Théodore Devilly, peintre français (° 28 octobre 1818).
+26 décembre :
+Walerian Kalinka, prêtre et historien polonais (° 20 novembre 1826).
+John Alexander Logan, militaire et homme politique américain (° 9 février 1826).
+Theodor von Oppolzer, astronome autrichien (° 26 octobre 1841).
+27 décembre : Sigmund Kolisch, journaliste autrichien (° 21 septembre 1816).
+28 décembre : Jean Hubert, historien et bibliothécaire français (° 21 novembre 1807).
+29 décembre :
+Alphonse de Boissieu, archéologue français (° 11 décembre 1807).
+Addison C. Gibbs, homme politique américain (° 9 juillet 1825).
+Alois Pokorny, naturaliste et directeur de lycée autrichien (° 22 mai 1826).
+30 décembre : Hans Alexis von Biehler, ingénieur militaire et général d'infanterie allemand (° 16 juin 1818).</t>
         </is>
       </c>
     </row>
